--- a/cms/language/剧情对话和新手教学翻译需求.xlsx
+++ b/cms/language/剧情对话和新手教学翻译需求.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="11265" yWindow="5025" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="11265" yWindow="5025" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="414">
   <si>
     <t>（进入战斗）</t>
   </si>
@@ -114,898 +114,806 @@
   </si>
   <si>
     <t>我叫九尾，从今天起就是你的契约妖怪了，你叫什么名字？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>你是谁，为什么会出现在我的房间里？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>我</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>来不及解释了，快点战斗，不然我们都得死</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>九尾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>战斗？我不会战斗呀！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>小狐狸，你就别挣扎了，乖乖将信仰之力交给我吧。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>雪女</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>休想！（吟唱咒语）从现在起，我九尾天狐与你结成契约，你是我在人界的代行者。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>怎……怎么回事？啊！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>这是怎么回事？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>振作点，看清眼前的敌人，与我并肩作战。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>怎么办，好像攻击不起作用了。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>快戴上你的眼镜！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>眼镜？这个是装饰品呀。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>没时间了，快戴上，你就可以看到她的弱点。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>呼……胜利了，没想到你还挺能干嘛。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>咳咳……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>她好像伤得很重</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>嗯，妖怪没有足够的信仰之力维持，就会消失。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>那个……我们能救救她吗，感觉有点可怜……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>没想到你还是个好心肠的人。救雪女很简单，只要你和她结成契约就好了。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>契约？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>就像刚才我们的契约一样，你使用记载着雪女信息的古书，就可以通过契约将雪女召唤过来。。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>不过以你现在的力量，召唤雪女的话，就无法维持我的作战状态了。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>救人要紧！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>（起名流程）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>你们竟然救了我……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>哼，虽然有些不爽，不过你也和这家伙结成了契约，我们之间也没有战斗的必要了。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>对了，刚才你在召唤的时候，好像还得到了其他妖怪的故事残片，用这些残片试试合成召唤吧。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>干得不错嘛，以后进行召唤的时候，也可能召唤出妖怪的故事残片，别忘了合成呀。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>喂，小狐狸，这个人看起来好笨呀，真的能放心结成契约吗？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>……呃解释太复杂你也听不懂，总之我们是异界的妖怪，是通过古书这种媒介来到人界的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>总之，妖怪是依靠人类对我们的信仰生存的，所以很多妖怪来到人界，是为了获得信仰之力。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>现在以你的灵力，不足够同时驱使我和雪女两个这样等级的妖怪，我就先休息，让她来保护你吧。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>现在你们应该给我解释下状况了吧……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>别慌，好像有家伙循着味道过来了……我们先把这些家伙干掉再说</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>（通关1-1）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>为什么街上会有妖怪！这到底是怎么回事？你们是谁，从哪里来，为什么在我的书房里？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>你这人好多问题呀，难道看不出来吗，我们是妖怪呀，当然是来自异界。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>是呀，现在异界的很多妖怪都来到了人界，因为那边……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>总之，我来到这里后就被雪女追杀，慌乱中开了异界传送门，没想到连到了你的书柜……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>异界！？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>（通关1-2）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>（通关1-3）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>（合成曼陀罗）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>什么东西？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>信仰之力，那是什么？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>总之跟你说你也不懂，跟我一起来见识一下吧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>击败妖怪，得到这些像火苗一样的东西，就是信仰之力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>只要吃下信仰之力，妖怪就会成长，试试吧？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>你看，是不是觉得我变强了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>其实有很多办法获得信仰之力，不一定非要抢其他妖怪的……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>不可能，现在镇上的妖怪都知道，这是最快的获得信仰之力的办法。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>肯定有人的在散布谣言，好不容易来到人界，这样下去大家都会死的。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>喂，你现在是我们的宿主，是跟我们绑定在一起的，只有跟我们一起行动去阻止妖怪自相残杀了。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>你一定要小心，契约双方有一方死亡，另一方也会死亡的……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>呼……这些妖怪真难应付。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>小狐狸你这就不行了？本公主就勉为其难帮你下吧，看这是什么？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>碎片！你竟然把记载曼陀罗的碎片从异界带过来了！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>镇上的妖怪好像形成了集团。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是呀，现在镇上有三个大妖怪集团呢，要想说服他们不再厮杀可不容易。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间紧急，我们分头行动吧。你和我分别去劝说一个妖怪集团。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>哼，闻到这些喽啰们的气味我就知道，这个地方的首领肯定是赛布勒斯。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>赛布勒斯？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是呀，看守地狱门的那条蠢狗，那股狗臭味老远就能闻见，真是让人烦躁！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（狐狸讨厌狗吗……）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总之如果是赛布勒斯的话，那就要做好充分的准备，看来我要拿出点本事了。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>这样就行了，我们去找那条笨狗吧。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>哼，笨狗还不是乖乖被我打趴下了，有了代行者的力量，本狐狸今非昔比了~</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不是说来谈判吗，怎么上来就开打了……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能动手解决的，为什么要动口~多亏了笨狗，我们拿到了好东西呢。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>立绘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>对话</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备，看来笨狗来人界的时候还带过来了异界的装备，有了这些我们的实力也有了提高。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>（穿戴装备）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>好了，我们看看雪娃娃那边怎么样了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>…………</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗯？你怎么这幅表情？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>被……全灭了……那里的妖怪被……全灭了……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怎么回事？！是谁干的？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小妖怪们说，好像是一个人类……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人类？我知道了！一定是散布流言的那个人，只要妖怪们互相吞并，他最后只要干掉最大的妖怪，就能获得全部信仰之力！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果是这样的话，他下一个目标一定是最后那个妖怪集团，我们快去！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>刚才小妖怪们说，那个人类似乎还有妖怪帮手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>这么说的话，他也是代行者……我们要小心应付</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>（开启一个后备位）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>前面就是了，我感受到了很恐怖的力量！我们一定要做好万全的准备。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>不好，来晚了，XXX的气息消失了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>呵呵，没想到还有自投罗网的妖怪，拉顿，你的餐后甜点来了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>K</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>你就是谣言的散布者！你的目的是什么？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>呵呵，目的？当然是夺取信仰之力，只要有足够的信仰之力，就能通过这颗金苹果打开异界的通道，完整的拉顿就能降临人间！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>金苹果，坏了！他是黑龙的代行者！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>真是一只见多识广的小狐狸，拉顿，上，撕裂这些挡路者！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>支援位置开启，可以统御更多的宠物了。战斗中可以通过替换操作将支援位置的宠物派上场，对战斗帮助很大吧。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>可恶，如果不是因为“墙”拉顿不会这么弱，看来我只好动用最后的王牌了……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>不好，他要让黑龙吃下金苹果！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>住手！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神秘声音</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>啊！咳咳……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>………………</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神秘人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>竟然是你偷袭我……咳咳……我只想见到拉顿……你们……咳咳……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>黑龙被击败了，他的代行者的生命也会同时消亡……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>多亏了你们，他是一个通缉犯，已经在世界各地杀掉了很多妖怪，我追捕多时，今天终于把他捉到了。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>嗯？你的眼镜…………</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>这部手机给你，如果想知道妖怪和你所戴眼镜的事情，就来找我吧。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>那个老头是谁，这么厉害竟然能一下干掉一条黑龙。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>……我总觉得他有些面熟，是在哪里见过呢……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>这个手机……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>我看看……这好像是被特殊加工过的手机，只能接收到特定的信号。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>那老头让你用这个找他，可这里面没有他的信息呀，是不是老糊涂了……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>咦，手机自己响了……有信息？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SOS……这是一条求救信息！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>可是只有一个SOS怎么去找呀。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>带上手机，我觉得如果接近目标它还会有反应的。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>这边的反应比较弱，我们再去别的地方看看吧。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>这边的反应也不强呀，小狐狸你是不是迷路了。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>……别胡说</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>之前我听K说什么“墙”，那是怎么回事呀……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>在人界和异界之间有一道屏障，如果一边的生物想穿越到对面的世界，就会被屏障附上新世界的“规则”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>比如在人界，本来是没有妖怪存在的，所以我要过来的话，妖力会被大大减弱到这个世界可以允许的水平</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>诶！这么说你们在异界比在这里强大多了！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>那还用说，如果在异界，哪还用像现在这样费事，哪怕千里之外的SOS信号，我也能立刻找到目标。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>嘘，好像接近目标了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>呃……我想了想不对呀，这么说来，人类之前的传说和神话都是翻墙来的妖怪了？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>……不，在之前，异界和人界是没有墙的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>没有墙？也就是说之前这两个世界之间是可以自由往来的？那墙是怎么出现的？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>我也不是很清楚……我的记忆很模糊，在我知道的时候，墙已经在那里了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>九尾狐不是至少活了一千年吗，难道一千年前……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>你们别说话了，手机又有反应了，求救的人就在前面。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>啊……得救了，还以为会被这些妖怪吃了……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>河童</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>谢谢你们，我是A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>A？！你是那个著名的插画师？！画河童漫画的那个？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>呃，是我，多谢你救了我，你也有这个手机？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>是呀，一个神秘的老头给我的。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>我的是读者寄来的匿名礼物，没想到在这里派上了用场。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>河童的代行者，这里太危险了，有什么话一会再说</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>喂你们等等，还有好多妖怪被捉到了这个神社里面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>妖怪被捉怎么回事，我们不是已经把黑龙干掉了吗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>最近似乎有很多妖怪平白无故的失踪了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>失踪？是不是回异界了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>根本不是的，我的朋友就失踪了，也没有回异界</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>似乎妖怪的失踪是一个神秘组织抓走的，我们根据线索来到这个神社</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>（神秘组织……不会跟那个神秘老人有什么关系吧）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>这个神社可能就是神秘组织的据点，我们要小心</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>你们真厉害，刚才我们就是被神社里的幻术困住，你们竟然没事</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>幻术？什么幻术，我怎么没感觉到……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>咦，小狐狸，这里有你的雕像！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>我的雕像？等等，我好像想起什么了……这里，好像是我们家族在人界的栖息地？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>怪不得你不会被这里的幻术控制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>小心，有妖怪过来了！咦？他们好像被控制了？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>叽叽！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>妖精</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>这是什么，好恶心！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>好像就是他们控制了这些妖怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>这种妖精我从未见过……难道……这是人造的，有人在故意制造妖怪！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>啊啊啊他们聚集到那颗树上了！那棵树也被他们控制了！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>终于处理了这些烦人的妖精，如果这是人造的妖精，那么黑暗组织绑架其他的妖怪，很可能就是为了制造妖精！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>啊！那龙女她……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>这里还没有他们的线索，这些混蛋肯定藏在了其他的地方，可恶！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>这个树……不是一般的树……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>嗯？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>这是世界树的幼苗，这棵树的内部还有空间！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>小狐狸干得漂亮！没想到树里还有这么大的森林</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>世界树本来就是孕育世界的神奇生物，成年的世界树可以支撑起一个世界，这个幼年的世界树中有这么大的空间完全不奇怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>这里，有龙女的气息！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>这么说那些被捉走的妖怪果然在这个树洞里！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>这里如果是那个黑暗组织的巢穴，那么戒备肯定森严，我们要小心。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>小狐狸，你们去做诱饵引开那些守卫，我趁机去救人怎么样？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>诱……诱饵！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>这个确实是比较快的方案了，只要小心的话不会有什么问题。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>喂喂……还要往前走吗，感觉要被他们发现了……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>别害怕，只要引开落新妇，就算是完成任务了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>啊啊啊，蜘蛛！好讨厌！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>嘘……小点声，小心被……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>坏了！果然被发现了，只能蛮干了！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>干的不错吗，小狐狸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>……都怪这个胆小鬼，差点连命都没了……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>谁是胆小鬼！女孩子怕蜘蛛怎么了！还那么大一只！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>嘘……小点声……别再引来怪物……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>前面就是关押妖怪的地方了吧……我们快去救人吧。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>哈哈哈，欢迎来到森之牢狱！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>你就是绑架妖怪的始作俑者吗！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>绑架，不要说得那么难听，我只是让这些异界逃来的可怜虫变得更加强大。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>混蛋！你别想跑！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>跑？我怎么会跑？盛大的欢迎宴会才刚刚开始。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>啊，那是龙女！她……她也被控制了！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>呵呵，你能对昔日的朋友下手吗？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>龙女……你没事吧！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>别担心，他只是妖力用尽晕了过去。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>可恶，怎么才能把她从控制中救出来！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>控制……对了！你快使用照妖镜！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>对！你用照妖镜能够看到的，那些控制龙女的妖精的弱点。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>怎……怎么可能！你到底是谁，你为什么能够击败这些妖精！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>不…呵呵…不管你是谁，都不能阻止我，阻止组织！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>我要让你看看，美杜莎的代行者的厉害！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>雪女（笑）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>九尾（开心）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>雪女（好奇）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>九尾（脱力）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>九尾（生气）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>雪女（开心）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>雪女（害怕）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>九尾（惊讶）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>雪女（严肃）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>K（狂妄）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>K（不甘）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神秘人（沉思）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>九尾（悲伤）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>河童（害怕）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>A（生气）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>妖精（暴怒）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>A（开心）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>九尾（害怕）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>B（狂笑）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>B（暴怒）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>目录</t>
     <rPh sb="0" eb="1">
       <t>mu'lu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>修改记录：</t>
@@ -1015,14 +923,14 @@
     <rPh sb="2" eb="3">
       <t>ji'lu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
       <t>r'q</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>修改内容</t>
@@ -1032,7 +940,7 @@
     <rPh sb="2" eb="3">
       <t>nei'rong</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>修改人</t>
@@ -1042,14 +950,14 @@
     <rPh sb="2" eb="3">
       <t>ren</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
     <rPh sb="0" eb="1">
       <t>bei'zhu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>剧情对话</t>
@@ -1059,7 +967,7 @@
     <rPh sb="2" eb="3">
       <t>ji'neng</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>新手教学</t>
@@ -1067,49 +975,43 @@
       <t>di</t>
     </rPh>
     <rPh sb="1" eb="2">
-      <t>yi'er'zhang</t>
+      <t>yi'er'zhangf'bji'neng</t>
     </rPh>
-    <rPh sb="4" eb="5">
-      <t>f'b</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ji'neng</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>英文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>人物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>中文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>我</t>
   </si>
   <si>
     <t>我</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>九尾狐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>冰雪女王</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>K</t>
   </si>
   <si>
     <t>K</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神秘声音</t>
@@ -1119,11 +1021,11 @@
   </si>
   <si>
     <t>神秘人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>河童（害怕）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>河童</t>
@@ -1136,11 +1038,11 @@
   </si>
   <si>
     <t>攻击伤害太低了，需要找到她的弱点才能打败她！要找到怪物的弱点，就要使用照妖镜。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>在怪物左侧列出了怪物的弱点，第一个弱点是怪物的默受击点，每个怪物都有，直接攻击这个点可不是明智的选择哦~</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>将照妖镜拖动至弱点位置进行鉴定。</t>
@@ -1191,75 +1093,40 @@
     <t>点击合成</t>
   </si>
   <si>
-    <t>选择章节</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>选择副本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>上阵第一个宠物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>上阵第二个宠物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗会消耗活力值，开始战斗吧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开宠物界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>选择宠物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>打开经验药列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击或者长按使用经验药</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击升级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>点击装备</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支援位置开启，可以统御更多的宠物了。战斗中可以通过替换操作将支援位置的宠物派上场，对战斗帮助很大吧。</t>
-  </si>
-  <si>
-    <t>点击宠物，可以进行外援宠物替换。</t>
-  </si>
-  <si>
-    <t>宠物生命不足，可以替换外援怪物。</t>
-  </si>
-  <si>
-    <t>打开商店界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>加号代表有可穿装备，点击打开装备列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>恭喜获得了装备强化石！在宠物界面可以强化装备，能够大幅提升宠物战斗力哦！快去试试吧~</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>点击签到</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店会有自动刷新时间，当然，也可以通过消耗钻石刷新，多来看看吧~</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>创建文档
@@ -1280,29 +1147,546 @@
       <t>yi'er'zhang</t>
     </rPh>
     <rPh sb="19" eb="20">
-      <t>ji'neng</t>
+      <t>ji'nengmingyi'jimiao'shu</t>
     </rPh>
-    <rPh sb="21" eb="22">
-      <t>ming</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>yi'ji</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>miao'shu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>来不及解释了，快点战斗，不然我们都得死</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇上的妖怪好像形成了集团。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是呀，现在镇上有三个大妖怪集团呢，要想说服他们不再厮杀可不容易。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间紧急，我们分头行动吧。你和我分别去劝说一个妖怪集团。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>哼，闻到这些喽啰们的气味我就知道，这个地方的首领肯定是皮影。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮影？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是呀，一种掌控影子的怪物，如果不小心，就会被他拖进永恒的黑暗！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>（你们之前是有过过节吗……）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总之如果是皮影的话，那就要做好充分的准备，看来我要拿出点本事了。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样就行了，我们去找那条笨影子吧。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>九尾（开心）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>九尾（开心）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>哼，笨影子还不是乖乖被我打趴下了，有了代行者的力量，本狐狸今非昔比了~</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不是说来谈判吗，怎么上来就开打了……</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>九尾（开心）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>能动手解决的，为什么要动口~多亏了笨影子，我们拿到了好东西呢。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么东西？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>九尾</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备，看来笨影子来人界的时候还带过来了异界的装备，有了这些我们的实力也有了提高。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>九尾</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>好了，我们看看雪娃娃那边怎么样了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪女（害怕）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>…………</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗯？你怎么这幅表情？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>被……全灭了……那里的妖怪被……全灭了……</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>九尾（惊讶）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么回事？！是谁干的？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小妖怪们说，好像是一个人类……</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>九尾（生气）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类？我知道了！一定是散布流言的那个人，只要妖怪们互相吞并，他最后只要干掉最大的妖怪，就能获得全部信仰之力！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是这样的话，他下一个目标一定是最后那个妖怪集团，我们快去！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>没想到这个人夺取了这么多妖怪的能力！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果还有妖怪来到人界，一定还会被这个黑暗组织盯上……</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>说起来，到底异界发生了什么，为什么妖怪回来到人界？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>九尾</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们去异界看个清楚吧</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>………………</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>九尾？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>…………好吧，不过回到异界唯一的办法就是房间里的传送门了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里是哪里？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪女</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊！为什么传到了这么讨厌的地方！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">九尾 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里是异界七大国度的火之国……传送门不稳定，这里离我们的目的地还很远</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我怎么感觉身体不太舒服</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>九尾</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为穿过了屏障，人类也会被屏障削弱，就像妖怪去人界的时候一样，在这里千万不要轻举妄动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪女（害怕）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火之国的统治者是火神，是个十分可怕的存在……</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪女</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>热死了……我感觉我要化掉了……</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>河童（脱力）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我也是……感觉要干枯了……</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>整个火之国都是建立在一个巨大的火山中……在这里生活的全是一些喜爱火炎呃神怪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪女（开心）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊……前面好像有一座大雪山~你们看到没？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>河童（开心）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>好棒……大雪山……</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>喂喂……已经出现海市蜃楼的幻觉了吗……</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>振作呀！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>九尾（脱力）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>再往前走，是凤凰的栖息地了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤凰！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>九尾（脱力）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是呀，因为凤凰的能力是涅槃，可以浴火重生，所以他们一遇到不开心的事就自焚了，是一群丧心病狂的纵火犯</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵火犯……</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总之我们还是离他们远点比较好……</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>前面是赤天狗的住处了，听说他是一个盲人，却拥有很强大的占卜能力呢~</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要去找他算算我的恋爱运~</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>说到恋爱你神采奕奕，完全不像是被热晕了的样子了呢……</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪女</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>哼，要你管！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤天狗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>盲人算命，百试百灵。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>哇！果然有赤天狗！快帮我占卜！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗯，这位小姐，你的面色很差呢，或许会有大灾难……</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>你一个瞎子怎么看出她的面色的？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤天狗（汗）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>…………………………</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊……哈哈……老夫身体不适，今天就不占卜了……</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>别想跑！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>喂喂……别打了！我错了还不行吗！扮演瞎子只是为了让占卜更可信啊……</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>哼，没想到你是这样的瞎子，快说火神殿怎么走</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们要去找火神？过了这片山谷，前面就是了。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>那好，我们走了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小姑娘……</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪女（好奇）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗯？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗯……算了没事……你回到故乡的时候千万要小心……</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪女（）好奇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照赤天狗所说，出了前面的山谷就应该能看到火神殿了。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离火神殿还有一段路</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>喂喂，九尾，打底异界发生了什么，为什么你们会到人界去呢？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>…………你到了就知道了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里就是火神殿的前面了，不出意外的话，会有伊芙利特守卫在这里，我们要小心。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>前面马上就要进入火神殿了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火神，到底是个什么样子的人？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火神十分可怕……总之你见到的时候千万不要乱说话</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>诶？你么是来找我的吗？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火！火神大人！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>诶？！这是火神？这明明是个小孩子呀！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>住！住嘴！火神大人！他什么也没说！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>呐？你就是火神，好可爱，快放我们通过火之国吧。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火神（哭）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大……大姐姐……好可怕……</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊啊啊啊不好了！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火神一害怕的时候就会大哭，一大哭的时候就会释放吞噬天地的爆炎之力</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>呜呜……好可怕……哇哇哇！！！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤天狗</t>
+  </si>
+  <si>
+    <t>赤天狗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火神</t>
+  </si>
+  <si>
+    <t>火神</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择章节</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开副本界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗会消耗活力值，开始战斗吧</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击或者长按使用经验药</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击升级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>支援位置开启，可以统御更多的宠物了。战斗中可以通过替换操作将支援位置的宠物派上场，对战斗帮助很大吧。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击宠物，可以进行外援宠物替换</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物生命不足，可以替换外援怪物</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开商店界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店会有自动刷新时间，当然，也可以通过消耗钻石刷新，多来看看吧~</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1310,6 +1694,20 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1372,6 +1770,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1418,45 +1822,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1769,7 +2182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -1785,36 +2198,36 @@
   <sheetData>
     <row r="2" spans="2:5" ht="18" x14ac:dyDescent="0.15">
       <c r="B2" s="5" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B3" s="6" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="33" x14ac:dyDescent="0.15">
@@ -1822,10 +2235,10 @@
         <v>42452</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="E10" s="9"/>
     </row>
@@ -1962,7 +2375,7 @@
       <c r="E32" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B4" location="第一二章!A1" display="第一二章副本技能"/>
     <hyperlink ref="B3" location="通用技能!A1" display="通用技能"/>
@@ -1974,10 +2387,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O233"/>
+  <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1988,114 +2401,111 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>241</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>232</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
-        <v>0</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -2103,36 +2513,33 @@
         <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11" t="s">
-        <v>1</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="11" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -2140,70 +2547,70 @@
         <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="11" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -2211,15 +2618,15 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -2227,118 +2634,118 @@
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="11" t="s">
-        <v>4</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="11" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="11" t="s">
-        <v>5</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="11" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="11" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
@@ -2346,44 +2753,44 @@
         <v>32</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>235</v>
+        <v>32</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>34</v>
+        <v>212</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>71</v>
@@ -2391,704 +2798,776 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="11" t="s">
-        <v>74</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="11" t="s">
-        <v>6</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>234</v>
+        <v>36</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>236</v>
+        <v>33</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="11" t="s">
-        <v>75</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="11" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>233</v>
+        <v>33</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="11" t="s">
-        <v>76</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>34</v>
+        <v>210</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B80" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="11" t="s">
+      <c r="B82" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B82" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="11" t="s">
+      <c r="B84" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="11" t="s">
+    <row r="87" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>34</v>
+        <v>300</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A94" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+        <v>301</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>34</v>
+        <v>302</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>238</v>
+        <v>304</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>110</v>
+        <v>305</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>239</v>
+        <v>302</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>111</v>
+        <v>306</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>238</v>
+        <v>304</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>112</v>
+        <v>307</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>236</v>
+        <v>308</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>113</v>
+        <v>309</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>236</v>
+        <v>304</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="11" t="s">
-        <v>9</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A103" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>116</v>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>34</v>
+        <v>217</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="11" t="s">
-        <v>10</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A108" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>118</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>236</v>
+        <v>33</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A111" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>120</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>121</v>
+        <v>245</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>241</v>
+        <v>98</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="11" t="s">
-        <v>13</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A118" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>128</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>130</v>
+        <v>219</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>271</v>
+        <v>107</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>133</v>
+        <v>221</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>243</v>
+        <v>110</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="11" t="s">
-        <v>14</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A127" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A129" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>140</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>32</v>
+        <v>211</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>234</v>
+        <v>32</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>34</v>
+        <v>216</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="11" t="s">
-        <v>15</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A137" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
     </row>
     <row r="139" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A141" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>150</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>34</v>
+        <v>212</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>237</v>
+        <v>33</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="O146" s="4"/>
+        <v>130</v>
+      </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="11" t="s">
-        <v>17</v>
-      </c>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A148" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O148" s="4"/>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A150" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>158</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.15">
@@ -3096,15 +3575,15 @@
         <v>32</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.15">
@@ -3112,52 +3591,52 @@
         <v>32</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="11" t="s">
-        <v>18</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A155" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
-        <v>272</v>
+        <v>36</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A157" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>165</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
-        <v>32</v>
+        <v>249</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.15">
@@ -3165,562 +3644,1098 @@
         <v>32</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A163" s="11" t="s">
-        <v>19</v>
+      <c r="A163" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A165" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>173</v>
+      <c r="A165" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
-        <v>246</v>
+        <v>143</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
-        <v>164</v>
+        <v>223</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
-        <v>246</v>
+        <v>143</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A172" s="11" t="s">
-        <v>20</v>
+      <c r="A172" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A174" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>181</v>
+      <c r="A174" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
-        <v>234</v>
+        <v>143</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
-        <v>234</v>
+        <v>33</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A179" s="11" t="s">
-        <v>21</v>
+      <c r="A179" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A181" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>188</v>
+      <c r="A181" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
-        <v>246</v>
+        <v>164</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
-        <v>238</v>
+        <v>33</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A186" s="11" t="s">
-        <v>22</v>
+      <c r="A186" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A188" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>193</v>
+      <c r="A188" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
-        <v>34</v>
+        <v>222</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A193" s="11" t="s">
-        <v>23</v>
+      <c r="A193" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
-        <v>248</v>
+        <v>33</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A195" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>199</v>
+      <c r="A195" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
-        <v>164</v>
+        <v>225</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A199" s="1" t="s">
-        <v>248</v>
+        <v>143</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
-        <v>238</v>
+        <v>33</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A201" s="1" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A202" s="11" t="s">
-        <v>24</v>
+      <c r="A202" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A203" s="1" t="s">
-        <v>238</v>
+        <v>33</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A204" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>207</v>
+      <c r="A204" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A205" s="11" t="s">
-        <v>25</v>
+      <c r="A205" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
-        <v>238</v>
+        <v>33</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A207" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>209</v>
+      <c r="A207" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A208" s="1" t="s">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A209" s="11" t="s">
-        <v>26</v>
+      <c r="A209" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A210" s="1" t="s">
-        <v>248</v>
+        <v>33</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A211" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>212</v>
+      <c r="A211" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A212" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A213" s="1" t="s">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A215" s="11" t="s">
-        <v>27</v>
+      <c r="A215" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A216" s="1" t="s">
-        <v>220</v>
+        <v>143</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A217" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>217</v>
+      <c r="A217" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A218" s="1" t="s">
-        <v>250</v>
+        <v>197</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A219" s="1" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A220" s="1" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A221" s="1" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A222" s="1" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A223" s="11" t="s">
-        <v>28</v>
+      <c r="A223" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A224" s="1" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A225" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>225</v>
+      <c r="A225" s="11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A226" s="1" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A227" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A228" s="1" t="s">
-        <v>32</v>
+        <v>223</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A229" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A230" s="11" t="s">
-        <v>29</v>
+      <c r="A230" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A231" s="1" t="s">
-        <v>251</v>
+        <v>33</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A232" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>230</v>
+      <c r="A232" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A233" s="1" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>231</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A234" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A235" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A236" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A237" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A238" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A239" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A240" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A241" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A242" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A243" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A244" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A245" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A246" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A247" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A248" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A249" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A250" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A251" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A252" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A253" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A254" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A255" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A256" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A257" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A258" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A259" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A260" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A261" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A262" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A263" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A264" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A265" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A266" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A267" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A268" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A269" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A270" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A271" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A272" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A273" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A274" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A275" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A276" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A277" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A278" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A279" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A280" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A281" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A282" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A283" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A284" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A285" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A286" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A287" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A288" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A289" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A290" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A291" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A292" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A293" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A294" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A295" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A296" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A297" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A298" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A299" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A300" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -3730,8 +4745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K40"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3741,211 +4756,211 @@
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="K1" s="2" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B2" s="12" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B3" s="12" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4" s="12" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" s="12" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B6" s="12" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B7" s="12" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B8" s="12" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B9" s="12" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B10" s="12" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B11" s="12" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B12" s="12" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B13" s="12" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B14" s="12" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B15" s="12" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B16" s="12" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="12" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="12" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="12" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="12" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="12" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B22" s="12" t="s">
-        <v>294</v>
+      <c r="B22" s="14" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B23" s="12" t="s">
-        <v>295</v>
+      <c r="B23" s="14" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B24" s="12" t="s">
-        <v>296</v>
+      <c r="B24" s="15" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B25" s="12" t="s">
-        <v>297</v>
+      <c r="B25" s="15" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B26" s="12" t="s">
-        <v>298</v>
+      <c r="B26" s="15" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B27" s="12" t="s">
-        <v>299</v>
+      <c r="B27" s="15" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B28" s="12" t="s">
-        <v>300</v>
+      <c r="B28" s="15" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B29" s="12" t="s">
-        <v>301</v>
+      <c r="B29" s="15" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B30" s="12" t="s">
-        <v>302</v>
+      <c r="B30" s="15" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B31" s="12" t="s">
-        <v>303</v>
+      <c r="B31" s="15" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B32" s="12" t="s">
-        <v>309</v>
+      <c r="B32" s="15" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" s="12" t="s">
-        <v>304</v>
+      <c r="B33" s="15" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B34" s="12" t="s">
-        <v>305</v>
+      <c r="B34" s="15" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B35" s="12" t="s">
-        <v>306</v>
+      <c r="B35" s="15" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B36" s="12" t="s">
-        <v>307</v>
+      <c r="B36" s="15" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B37" s="12" t="s">
-        <v>308</v>
+      <c r="B37" s="15" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B38" s="12" t="s">
-        <v>312</v>
+      <c r="B38" s="15" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B39" s="12" t="s">
-        <v>310</v>
+      <c r="B39" s="15" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B40" s="12" t="s">
-        <v>311</v>
+      <c r="B40" s="15" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
